--- a/src/data/poster_problem/5_comp_linear_hydrocarbons.xlsx
+++ b/src/data/poster_problem/5_comp_linear_hydrocarbons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Braskem Project\ChemSA Poster\example problem data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\poster_problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A481B3-4575-479C-9FC8-74110740D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F948843-7C87-43B9-BC01-0027B3BA7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
